--- a/Team-Data/2007-08/3-25-2007-08.xlsx
+++ b/Team-Data/2007-08/3-25-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
         <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>0.429</v>
+        <v>0.435</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,7 +751,7 @@
         <v>35.7</v>
       </c>
       <c r="J2" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.448</v>
@@ -699,13 +766,13 @@
         <v>0.352</v>
       </c>
       <c r="O2" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
         <v>27.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R2" t="n">
         <v>12.4</v>
@@ -717,7 +784,7 @@
         <v>42.4</v>
       </c>
       <c r="U2" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V2" t="n">
         <v>15.2</v>
@@ -726,31 +793,31 @@
         <v>7.4</v>
       </c>
       <c r="X2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y2" t="n">
         <v>5.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB2" t="n">
         <v>96.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -795,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="AU2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV2" t="n">
         <v>25</v>
@@ -807,10 +874,10 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>9.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -968,7 +1035,7 @@
         <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS3" t="n">
         <v>9</v>
@@ -989,7 +1056,7 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -998,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
         <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="n">
-        <v>0.357</v>
+        <v>0.362</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,25 +1115,25 @@
         <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.8</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
         <v>17.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O4" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P4" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q4" t="n">
         <v>0.71</v>
@@ -1075,16 +1142,16 @@
         <v>11.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="T4" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U4" t="n">
         <v>20.9</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.5</v>
@@ -1096,19 +1163,19 @@
         <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.2</v>
+        <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1123,10 +1190,10 @@
         <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
@@ -1153,16 +1220,16 @@
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU4" t="n">
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
         <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.391</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K5" t="n">
         <v>0.43</v>
@@ -1239,22 +1306,22 @@
         <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.752</v>
+        <v>0.749</v>
       </c>
       <c r="R5" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="S5" t="n">
         <v>30.3</v>
@@ -1266,37 +1333,37 @@
         <v>21.7</v>
       </c>
       <c r="V5" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W5" t="n">
         <v>7.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
         <v>21.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
         <v>96.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>22</v>
@@ -1305,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1323,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
@@ -1350,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.634</v>
+        <v>0.629</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1597,7 +1664,7 @@
         <v>79</v>
       </c>
       <c r="K7" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
@@ -1606,10 +1673,10 @@
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O7" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P7" t="n">
         <v>25.5</v>
@@ -1618,28 +1685,28 @@
         <v>0.8139999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S7" t="n">
         <v>32.5</v>
       </c>
       <c r="T7" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U7" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
         <v>21.9</v>
@@ -1651,10 +1718,10 @@
         <v>100</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1663,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1675,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
@@ -1696,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
         <v>4</v>
@@ -1714,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>22</v>
@@ -1729,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1851,7 +1918,7 @@
         <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
         <v>3</v>
@@ -1878,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2048,13 +2115,13 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
         <v>14</v>
@@ -2084,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>4</v>
@@ -2394,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
@@ -2433,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
         <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.408</v>
+        <v>0.414</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J12" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L12" t="n">
         <v>9</v>
@@ -2519,13 +2586,13 @@
         <v>0.369</v>
       </c>
       <c r="O12" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
@@ -2537,7 +2604,7 @@
         <v>43.2</v>
       </c>
       <c r="U12" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V12" t="n">
         <v>15.2</v>
@@ -2555,22 +2622,22 @@
         <v>23.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3</v>
+        <v>0.304</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2695,16 +2762,16 @@
         <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.324</v>
+        <v>0.327</v>
       </c>
       <c r="O13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P13" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="Q13" t="n">
         <v>0.783</v>
@@ -2716,10 +2783,10 @@
         <v>30.3</v>
       </c>
       <c r="T13" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V13" t="n">
         <v>14.3</v>
@@ -2740,13 +2807,13 @@
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2797,7 +2864,7 @@
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2809,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2952,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3167,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>28</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG17" t="n">
         <v>24</v>
@@ -3534,7 +3601,7 @@
         <v>23</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3701,7 +3768,7 @@
         <v>11</v>
       </c>
       <c r="AS18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3868,7 +3935,7 @@
         <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3880,13 +3947,13 @@
         <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS19" t="n">
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3901,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" t="n">
         <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.696</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3963,34 +4030,34 @@
         <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L20" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N20" t="n">
         <v>0.39</v>
       </c>
       <c r="O20" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="P20" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="Q20" t="n">
         <v>0.771</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>30.7</v>
       </c>
       <c r="T20" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
@@ -4014,16 +4081,16 @@
         <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
@@ -4041,10 +4108,10 @@
         <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM20" t="n">
         <v>9</v>
@@ -4068,16 +4135,16 @@
         <v>14</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4247,7 +4314,7 @@
         <v>8</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" t="n">
         <v>46</v>
       </c>
       <c r="F22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" t="n">
-        <v>0.63</v>
+        <v>0.639</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4330,10 +4397,10 @@
         <v>0.473</v>
       </c>
       <c r="L22" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="N22" t="n">
         <v>0.386</v>
@@ -4345,55 +4412,55 @@
         <v>28.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R22" t="n">
         <v>9.5</v>
       </c>
       <c r="S22" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
         <v>42.1</v>
       </c>
       <c r="U22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V22" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W22" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X22" t="n">
         <v>4.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.5</v>
+        <v>104.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF22" t="n">
         <v>9</v>
       </c>
-      <c r="AF22" t="n">
-        <v>10</v>
-      </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>20</v>
@@ -4438,28 +4505,28 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX22" t="n">
         <v>25</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB22" t="n">
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -4578,7 +4645,7 @@
         <v>16</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF24" t="n">
         <v>5</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
         <v>16</v>
@@ -4802,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -4852,58 +4919,58 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
         <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.528</v>
+        <v>0.521</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J25" t="n">
         <v>79.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M25" t="n">
         <v>17.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O25" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P25" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="n">
         <v>0.768</v>
       </c>
       <c r="R25" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T25" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V25" t="n">
         <v>13</v>
@@ -4924,10 +4991,10 @@
         <v>20.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
         <v>2</v>
@@ -4936,10 +5003,10 @@
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
@@ -4960,10 +5027,10 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
@@ -4972,16 +5039,16 @@
         <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV25" t="n">
         <v>5</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
@@ -5002,7 +5069,7 @@
         <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,13 +5191,13 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
         <v>11</v>
@@ -5145,7 +5212,7 @@
         <v>9</v>
       </c>
       <c r="AO26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP26" t="n">
         <v>6</v>
@@ -5160,7 +5227,7 @@
         <v>20</v>
       </c>
       <c r="AT26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" t="n">
         <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.676</v>
+        <v>0.671</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
@@ -5237,7 +5304,7 @@
         <v>78.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L27" t="n">
         <v>7.5</v>
@@ -5249,22 +5316,22 @@
         <v>0.372</v>
       </c>
       <c r="O27" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P27" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q27" t="n">
         <v>0.765</v>
       </c>
       <c r="R27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S27" t="n">
         <v>31.4</v>
       </c>
       <c r="T27" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U27" t="n">
         <v>21.2</v>
@@ -5273,43 +5340,43 @@
         <v>12.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z27" t="n">
         <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF27" t="n">
         <v>5</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI27" t="n">
         <v>26</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>25</v>
       </c>
       <c r="AJ27" t="n">
         <v>25</v>
@@ -5336,7 +5403,7 @@
         <v>13</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
         <v>10</v>
@@ -5345,7 +5412,7 @@
         <v>20</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5366,7 +5433,7 @@
         <v>23</v>
       </c>
       <c r="BB27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5536,7 +5603,7 @@
         <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>17</v>
@@ -5670,7 +5737,7 @@
         <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -5762,22 +5829,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="n">
         <v>25</v>
       </c>
       <c r="G30" t="n">
-        <v>0.653</v>
+        <v>0.648</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="J30" t="n">
         <v>80.40000000000001</v>
@@ -5789,28 +5856,28 @@
         <v>4.7</v>
       </c>
       <c r="M30" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O30" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="P30" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R30" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S30" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U30" t="n">
         <v>26.3</v>
@@ -5819,10 +5886,10 @@
         <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y30" t="n">
         <v>5.3</v>
@@ -5831,19 +5898,19 @@
         <v>24.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.5</v>
+        <v>106.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5855,7 +5922,7 @@
         <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ30" t="n">
         <v>18</v>
@@ -5873,7 +5940,7 @@
         <v>11</v>
       </c>
       <c r="AO30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
         <v>2</v>
@@ -5882,19 +5949,19 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5909,7 +5976,7 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="n">
         <v>36</v>
       </c>
       <c r="F31" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.514</v>
+        <v>0.522</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
         <v>81.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L31" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O31" t="n">
         <v>19.1</v>
@@ -5989,16 +6056,16 @@
         <v>12.2</v>
       </c>
       <c r="S31" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T31" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U31" t="n">
         <v>19.2</v>
       </c>
       <c r="V31" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W31" t="n">
         <v>7.8</v>
@@ -6007,7 +6074,7 @@
         <v>4.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
         <v>19.7</v>
@@ -6016,13 +6083,13 @@
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6031,13 +6098,13 @@
         <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>13</v>
@@ -6052,13 +6119,13 @@
         <v>12</v>
       </c>
       <c r="AN31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>4</v>
@@ -6067,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT31" t="n">
         <v>15</v>
@@ -6085,7 +6152,7 @@
         <v>13</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-25-2007-08</t>
+          <t>2008-03-25</t>
         </is>
       </c>
     </row>
